--- a/Backend/Input/Programs/Planillas programas sociales.xlsx
+++ b/Backend/Input/Programs/Planillas programas sociales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mineduca-my.sharepoint.com/personal/joaquin_astorga_mineduc_cl/Documents/Documentos/Escritorio/Planilllas_informe mensual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaquin.astorga\mis_proyectos\Proyecto ARMM\APP\Backend\Input\Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C28A8831-45F5-4079-A569-E5A293498170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2317A13-0FA8-470C-B549-9AC28756A8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{605468A5-0570-42AA-B423-9BA778D8FF22}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Monitoreo y exantes" sheetId="2" r:id="rId2"/>
     <sheet name="datos_graficos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,45 +38,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>SUBSECRETARÍA/SERVICIO</t>
   </si>
   <si>
-    <t>NÚMERO DE PROGRAMAS</t>
-  </si>
-  <si>
-    <t>SUBSECRETARÍA/SERVICIO 2</t>
-  </si>
-  <si>
-    <t>NÚMERO DE PROGRAMAS3</t>
+    <t>NÚMERO DE PROGRAMAS DICIEMBRE 2024</t>
+  </si>
+  <si>
+    <t>Dirección de Educación Pública</t>
+  </si>
+  <si>
+    <t>Junta Nacional de Auxilio Escolar y Becas</t>
+  </si>
+  <si>
+    <t>Junta Nacional de Jardines Infantiles</t>
+  </si>
+  <si>
+    <t>Subsecretaria de Educación</t>
+  </si>
+  <si>
+    <t>Subsecretaría Educación Parvularia</t>
+  </si>
+  <si>
+    <t>Subsecretaría Educación Superior</t>
   </si>
   <si>
     <t>SUBSECRETARÍA / SERVICIO</t>
   </si>
   <si>
-    <t>Dirección de Educación Pública</t>
-  </si>
-  <si>
-    <t>Junta Nacional de Auxilio Escolar y Becas</t>
-  </si>
-  <si>
-    <t>Junta Nacional de Jardines Infantiles</t>
-  </si>
-  <si>
-    <t>Subsecretaria de Educación</t>
-  </si>
-  <si>
-    <t>Subsecretaría Educación Parvularia</t>
-  </si>
-  <si>
-    <t>Subsecretaría Educación Superior</t>
-  </si>
-  <si>
     <t>MONITOREO</t>
   </si>
   <si>
-    <t>EXANTE</t>
+    <t>RESULTADO EX ANTE 2023</t>
   </si>
   <si>
     <t>PROGRAMA</t>
@@ -151,7 +145,7 @@
     <t>EJE</t>
   </si>
   <si>
-    <t>Inicio Monitoreo 
+    <t>Inicio Monitoreo 2024
 ejecución año t-1</t>
   </si>
   <si>
@@ -279,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -336,15 +330,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -353,7 +358,9 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -366,18 +373,9 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -391,47 +389,6 @@
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -442,17 +399,6 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -490,15 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -558,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,9 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,34 +527,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,28 +539,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,135 +579,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -972,13 +760,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BACF66D-E51E-4803-89FE-16519B228CA3}" name="Tabla3" displayName="Tabla3" ref="A1:E7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" totalsRowDxfId="11" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{982D2809-D275-4DA7-B3EB-1036F5595418}" name="SUBSECRETARÍA/SERVICIO" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F509353C-90AD-4C7A-B065-D3FA96717981}" name="NÚMERO DE PROGRAMAS" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D7F3492C-5958-406A-BCF1-121429C70D2A}" name="SUBSECRETARÍA/SERVICIO 2" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{957265F7-BCF6-4FD1-BE7F-BD41DC4DA67B}" name="NÚMERO DE PROGRAMAS3" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{11B2339A-A7FC-4D3E-965E-E3885ACE2FF2}" name="SUBSECRETARÍA / SERVICIO" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BACF66D-E51E-4803-89FE-16519B228CA3}" name="Tabla3" displayName="Tabla3" ref="A1:B7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" totalsRowDxfId="5" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{982D2809-D275-4DA7-B3EB-1036F5595418}" name="SUBSECRETARÍA/SERVICIO" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F509353C-90AD-4C7A-B065-D3FA96717981}" name="NÚMERO DE PROGRAMAS DICIEMBRE 2024" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1301,144 +1086,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC74EBBA-59B9-4B19-88E3-02FEA93AD57C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B4" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B5" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B6" s="8">
         <v>6</v>
       </c>
-      <c r="D3" s="8">
-        <v>26</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11">
-        <v>29</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="11">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11">
-        <v>6</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1447,11 +1167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48D57E2-322E-4545-99B3-2BF144CCF36E}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -1461,266 +1181,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B4" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="23">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1777,198 +1497,521 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>45646</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="C2" s="21">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>45294</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>45646</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="C3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>45317</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>45677</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="21">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>45748</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>45796</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="21">
         <v>2</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D7" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
-        <v>45294</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="28">
+    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>45435</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21">
         <v>-1</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D9" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>45317</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="28">
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>45442</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>45677</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="28">
+    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>45449</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="21">
         <v>-1</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D11" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>45748</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="28">
+    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>45456</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="21">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>45463</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>45796</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="28">
-        <v>2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>45432</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-      <c r="D8" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>45435</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="28">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
-        <v>45442</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="28">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
-        <v>45449</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="28">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
-        <v>45456</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="28">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
-        <v>45463</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="28">
-        <v>1</v>
-      </c>
-      <c r="D13" s="28">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc851cf5-9d25-4af0-b62f-d23d0a4f5e5c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="954542bb-2825-439d-9db6-a5c04d3b21fd" xsi:nil="true"/>
+    <orden xmlns="cc851cf5-9d25-4af0-b62f-d23d0a4f5e5c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E554BA5E2FA5449283D399C0FD5B7C" ma:contentTypeVersion="22" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c12b387725171b57bce8d20228431399">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc851cf5-9d25-4af0-b62f-d23d0a4f5e5c" xmlns:ns3="954542bb-2825-439d-9db6-a5c04d3b21fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b67a6e2ff3c9ebaa3c6cdc8923b4bdc" ns2:_="" ns3:_="">
+    <xsd:import namespace="cc851cf5-9d25-4af0-b62f-d23d0a4f5e5c"/>
+    <xsd:import namespace="954542bb-2825-439d-9db6-a5c04d3b21fd"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:orden"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cc851cf5-9d25-4af0-b62f-d23d0a4f5e5c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="83aa49dc-0840-4df2-9988-4c28c04889ec" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="orden" ma:index="26" ma:displayName="orden" ma:format="Dropdown" ma:internalName="orden" ma:percentage="FALSE">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number">
+          <xsd:maxInclusive value="12"/>
+          <xsd:minInclusive value="1"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="954542bb-2825-439d-9db6-a5c04d3b21fd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{33150509-9ce5-46ef-9449-4d71a664b447}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="954542bb-2825-439d-9db6-a5c04d3b21fd">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF324DBD-E5B2-4ED3-A4FD-22826FEC5766}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cc851cf5-9d25-4af0-b62f-d23d0a4f5e5c"/>
+    <ds:schemaRef ds:uri="954542bb-2825-439d-9db6-a5c04d3b21fd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4240189B-A8AD-49BC-A380-EBB9341BD063}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DBE8E1C-5F57-4422-810C-6705540FC929}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc851cf5-9d25-4af0-b62f-d23d0a4f5e5c"/>
+    <ds:schemaRef ds:uri="954542bb-2825-439d-9db6-a5c04d3b21fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>